--- a/biology/Botanique/Ximenia/Ximenia.xlsx
+++ b/biology/Botanique/Ximenia/Ximenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ximenia  est un genre de plante appartenant à la famille des Ximeniaceae (anciennement Olacaceae).
 </t>
@@ -511,10 +523,48 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[1], les espèces valides et les nomenclatures taxonomiques non résolues sont les suivantes :
-Espèces valides
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List, les espèces valides et les nomenclatures taxonomiques non résolues sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ximenia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ximenia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ximenia americana L.
 Ximenia caffra Sond.
 Ximenia coriacea Engl.
@@ -525,7 +575,43 @@
 Ximenia perrieri Cavaco &amp; Keraudren
 Ximenia pubescens Standl.
 Ximenia roigii León
-Nomenclatures taxonomiques non résolues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ximenia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ximenia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ximenia arborea Royle
 Ximenia arborescens Tussac ex Walp.
 Ximenia exarmata F.Muell.
